--- a/data/trans_camb/P0902-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P0902-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>1.893019377391805</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-1.289482221808291</v>
+        <v>-1.28948222180829</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>13.9106542228092</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.4036004428192685</v>
+        <v>-0.448997575210788</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.037312621968324</v>
+        <v>-2.584068453895024</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.983817836471586</v>
+        <v>-6.27278354414931</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.682805512683128</v>
+        <v>6.933993306991165</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.569180876173305</v>
+        <v>4.78169159180625</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-7.290090679085773</v>
+        <v>-6.860793875882607</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>4.512126197169843</v>
+        <v>5.120459487466952</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.140004942179061</v>
+        <v>2.403146583363271</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-4.761466725849008</v>
+        <v>-5.210817774011574</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.40584665130597</v>
+        <v>10.23951968910753</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.822026576188159</v>
+        <v>7.742448578071123</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.93129448746323</v>
+        <v>3.050471958774772</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20.70630755502437</v>
+        <v>21.39365118679883</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>17.64005234510489</v>
+        <v>18.08386816291555</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.328039329061826</v>
+        <v>3.220416763689895</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>13.67265535665178</v>
+        <v>14.14689585273043</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>10.82885849508824</v>
+        <v>10.9296328630607</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.74529381844871</v>
+        <v>1.751580449221055</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.2190587273364047</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.1492178779603583</v>
+        <v>-0.1492178779603581</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>1.032454600950536</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.05266439543306124</v>
+        <v>-0.05746808743349748</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3022689970490051</v>
+        <v>-0.2469877726850041</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.525615959984198</v>
+        <v>-0.5405530125049869</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.3544294514411154</v>
+        <v>0.3831050502927264</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2870335355768526</v>
+        <v>0.2448684749026959</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4334316724999078</v>
+        <v>-0.4053980600804309</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3347447381071697</v>
+        <v>0.4015514945714167</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1570113554041428</v>
+        <v>0.1933367460347813</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3665867736206786</v>
+        <v>-0.379428328998781</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.688903434564561</v>
+        <v>1.567188250004999</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.135260351072414</v>
+        <v>1.297246836080889</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5314754290785828</v>
+        <v>0.4890173244778216</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.990709694485765</v>
+        <v>2.026767487068729</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.664169972321551</v>
+        <v>1.702296113649057</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3349664830648765</v>
+        <v>0.3255858684591977</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.514431920767175</v>
+        <v>1.594884563531397</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.205615495041349</v>
+        <v>1.244711886130247</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.1935813296104399</v>
+        <v>0.1998704571826276</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-1.399388508251429</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>7.556075129436921</v>
+        <v>7.556075129436918</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>1.708473304955188</v>
@@ -878,7 +878,7 @@
         <v>-1.134044729102211</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>7.950581982631463</v>
+        <v>7.95058198263146</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.452618794247962</v>
+        <v>-2.858595730823359</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.800073524395767</v>
+        <v>-4.562977826410355</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.782652560482695</v>
+        <v>3.710747121431087</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.317438074434713</v>
+        <v>-2.829188587805408</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-5.640670440370565</v>
+        <v>-5.954358951145362</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.796208506994132</v>
+        <v>2.583074828941442</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.519732866854244</v>
+        <v>-1.736615366991059</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.949192846751474</v>
+        <v>-3.887911432287121</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>4.954700201504175</v>
+        <v>4.941250564491654</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.580206113117433</v>
+        <v>5.808258337211987</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.623971073674465</v>
+        <v>3.104238800146444</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.04884396919599</v>
+        <v>12.89179208419795</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.093928181986596</v>
+        <v>6.808668291301621</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.156721235279967</v>
+        <v>3.212520989358922</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>11.80499306707266</v>
+        <v>11.82767794855917</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.759636688117482</v>
+        <v>4.873906488133127</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.71157824819176</v>
+        <v>1.704392295116435</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>11.43981852353214</v>
+        <v>11.44186121842277</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.08557998770872857</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4620938451977467</v>
+        <v>0.4620938451977465</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.1328466311385092</v>
@@ -983,7 +983,7 @@
         <v>-0.08818049505641155</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.6182174628773744</v>
+        <v>0.6182174628773742</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2288561022404786</v>
+        <v>-0.2681490671098664</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4099928840120974</v>
+        <v>-0.4080736089356341</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.3272618614548377</v>
+        <v>0.3007579793341953</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1290524281455335</v>
+        <v>-0.1498063959204751</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3047638807875811</v>
+        <v>-0.3279499684769456</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1453929589641317</v>
+        <v>0.1397617735935052</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.09988764707003399</v>
+        <v>-0.1180289906025056</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2790434471362983</v>
+        <v>-0.2707739593050152</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.3349706305485501</v>
+        <v>0.342577962162186</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.751081845730722</v>
+        <v>0.7666879803198801</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3792543351092384</v>
+        <v>0.4533121252542399</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.794746383632405</v>
+        <v>1.70852745684</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.5036867973076911</v>
+        <v>0.4981939113536644</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2113706297733127</v>
+        <v>0.2399363948510521</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.859374518113914</v>
+        <v>0.8391320638781751</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4203624290511371</v>
+        <v>0.4269748681864207</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1463486982760268</v>
+        <v>0.1506558572064523</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.016625093360094</v>
+        <v>1.032150068451855</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.896000573642107</v>
+        <v>2.881368372043254</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.273744522978199</v>
+        <v>-0.6997206510214533</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.057561375483531</v>
+        <v>4.474159839268543</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.06192693941966424</v>
+        <v>-0.1903916891319342</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-6.222415647469643</v>
+        <v>-5.861750805537708</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.16673666429243</v>
+        <v>0.6707988443332712</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.651804287717077</v>
+        <v>2.544626744491773</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.321661944673344</v>
+        <v>-2.243559368020852</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.590224470146266</v>
+        <v>3.590497681478259</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.35649532030762</v>
+        <v>11.54340341240018</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.032264010934727</v>
+        <v>6.297954895975131</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.3759732137878</v>
+        <v>12.39986454359935</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.64563683433232</v>
+        <v>10.89566588816889</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.509896623704037</v>
+        <v>4.192929338752839</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>10.06664876509164</v>
+        <v>9.930147108686562</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>9.476095237107634</v>
+        <v>9.308435137044256</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.126096219924011</v>
+        <v>3.962137702986678</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>9.699476209098442</v>
+        <v>9.712595387578594</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.3779615980265442</v>
+        <v>0.4004563245364147</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.216752346713137</v>
+        <v>-0.1309586978909898</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.5510449340545336</v>
+        <v>0.6041017733183426</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.007908860157075854</v>
+        <v>-0.01832328120329459</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4355320659457722</v>
+        <v>-0.4167451685845878</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07140905969131174</v>
+        <v>0.02232141874890302</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2356040627175937</v>
+        <v>0.2308595657294895</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.245618631824109</v>
+        <v>-0.2250038364457934</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.3242250320728443</v>
+        <v>0.3418504321517297</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>3.493248429631544</v>
+        <v>3.578458049051749</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.762482365342436</v>
+        <v>2.040646354034283</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.781721804389001</v>
+        <v>4.419253111809082</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.149367481361089</v>
+        <v>1.164709034773206</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4622076827719412</v>
+        <v>0.4728433249959504</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.154170589721432</v>
+        <v>1.071753914057202</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.327902516935084</v>
+        <v>1.295340618805246</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.5877246194056306</v>
+        <v>0.5821224058359878</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.369673372661214</v>
+        <v>1.435691000406054</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>7.381151369101448</v>
+        <v>7.264967660265249</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>8.953133161200356</v>
+        <v>8.543404328981357</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8.399803068241397</v>
+        <v>8.629851766734209</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>11.5317805747036</v>
+        <v>11.86034645655567</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>10.16429464285709</v>
+        <v>10.33194923185276</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>5.588958727069887</v>
+        <v>5.276077245628556</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>11.11090605670022</v>
+        <v>10.94954219948341</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>10.80989326860822</v>
+        <v>10.83568795085803</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>8.657524924363905</v>
+        <v>8.436996647163852</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>15.81300739767385</v>
+        <v>15.54765320995944</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>17.79778552208981</v>
+        <v>18.20427557922523</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18.29447284425602</v>
+        <v>18.66897115630997</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>23.91429947366552</v>
+        <v>23.92053658925527</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>21.83150329402924</v>
+        <v>22.36363422349283</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>15.65243845238126</v>
+        <v>15.78232106317317</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>18.54632651784453</v>
+        <v>18.59105318840051</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>18.23295874484703</v>
+        <v>18.39339466915671</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>16.0601265739262</v>
+        <v>15.47164867890745</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>3.479615887364819</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>3.539849414814785</v>
+        <v>3.539849414814786</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>1.255467074138771</v>
@@ -1402,7 +1402,7 @@
         <v>1.110704368794917</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7461770906759667</v>
+        <v>0.7461770906759669</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>1.621738122227965</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1.264974313148648</v>
+        <v>1.36010887790966</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1.564657306283956</v>
+        <v>1.591778667295707</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1.585013543862101</v>
+        <v>1.61920335027366</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.6708241174395291</v>
+        <v>0.691325145652256</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.5828083038387996</v>
+        <v>0.6184256128118342</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3143643013975677</v>
+        <v>0.3113866666385045</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1.046812884159113</v>
+        <v>0.9952093529352903</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1.014787499809017</v>
+        <v>0.9703524530258105</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.8111519024972433</v>
+        <v>0.784789350567376</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6.516031210721047</v>
+        <v>7.196669146369143</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>7.584494721478198</v>
+        <v>7.990620009699593</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>7.924058100844372</v>
+        <v>7.755375776727115</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.128306938393588</v>
+        <v>2.121176597439961</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.837349100882395</v>
+        <v>1.951123796138643</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.339377623867334</v>
+        <v>1.431476770732031</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>2.448725350832477</v>
+        <v>2.509277931105188</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.393535728312323</v>
+        <v>2.350842963495424</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.092548780972823</v>
+        <v>2.056690068075661</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>0.4970629629902315</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-0.9057628446178314</v>
+        <v>-0.9057628446178329</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>15.3578134504182</v>
@@ -1511,7 +1511,7 @@
         <v>2.319757981457028</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.2376557793464934</v>
+        <v>0.237655779346492</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>9.888217862251009</v>
@@ -1520,7 +1520,7 @@
         <v>1.437624531483557</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-0.2269476896733083</v>
+        <v>-0.2269476896733069</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.448731100141051</v>
+        <v>-1.087891620665165</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-5.165868666010531</v>
+        <v>-4.587465314057136</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-5.104291620303401</v>
+        <v>-5.578420472977951</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7.451065721100377</v>
+        <v>8.231478472763444</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.287042797994199</v>
+        <v>-4.486922413239063</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-5.691541879984258</v>
+        <v>-5.754313771603838</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>5.078529005924113</v>
+        <v>4.933726226533566</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.859375042790137</v>
+        <v>-2.365665574028933</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-3.81402659306525</v>
+        <v>-3.981838346416714</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>10.43106860063782</v>
+        <v>10.14630449402683</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.309281634300536</v>
+        <v>5.642288882443972</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.202517807470198</v>
+        <v>3.128641723257759</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>23.69052667275999</v>
+        <v>23.13571631614056</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>8.871521980313222</v>
+        <v>8.343478835160882</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>5.086819230055092</v>
+        <v>5.180060433842136</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>14.59404439378089</v>
+        <v>14.5781939587644</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>5.189732212274293</v>
+        <v>5.867355620878222</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.25329219120372</v>
+        <v>2.780084689065579</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.06774072887847711</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.1234391613415392</v>
+        <v>-0.1234391613415394</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>1.335194696186618</v>
@@ -1616,7 +1616,7 @@
         <v>0.2016777038787156</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02066158292168176</v>
+        <v>0.02066158292168164</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>1.047247155156555</v>
@@ -1625,7 +1625,7 @@
         <v>0.152256778901178</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.0240357085261085</v>
+        <v>-0.02403570852610835</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1684254506158654</v>
+        <v>-0.1237972186331685</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5208708005892975</v>
+        <v>-0.4916465768791901</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5253233771825443</v>
+        <v>-0.5432719304085256</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.5061385534131965</v>
+        <v>0.5190654114120317</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3242353522753911</v>
+        <v>-0.3254568566687552</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.3547092872851423</v>
+        <v>-0.3739674948543296</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4064716934997716</v>
+        <v>0.4025649757169645</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2392757453130104</v>
+        <v>-0.2199524081269408</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3201726703690645</v>
+        <v>-0.328960307365143</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.092086985229823</v>
+        <v>2.17659773195612</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.094911372867267</v>
+        <v>1.161055026459952</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.6831363298057819</v>
+        <v>0.7222419586726169</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>2.775167937230269</v>
+        <v>2.792412245462737</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.091871903753141</v>
+        <v>0.997582501411722</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.6130690079250753</v>
+        <v>0.620936613125348</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.979412954907499</v>
+        <v>1.94695590248198</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.7103668434780817</v>
+        <v>0.7689672177020845</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.4562797246080115</v>
+        <v>0.3901263415723036</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>5.714531945188321</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2.705067522477787</v>
+        <v>2.705067522477786</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>0.2194795055698723</v>
@@ -1725,7 +1725,7 @@
         <v>4.572653682434533</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-1.080209095756776</v>
+        <v>-1.080209095756782</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>2.400406149177517</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.6293233363099127</v>
+        <v>0.3558091214427476</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.5302473912531849</v>
+        <v>0.5644361391263776</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.309131749397468</v>
+        <v>-1.608877323557282</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-6.68381084542595</v>
+        <v>-6.272232638737202</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-2.490195473975927</v>
+        <v>-2.780723477103519</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-6.348604772970651</v>
+        <v>-7.073250302466416</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-1.613663149556978</v>
+        <v>-1.979714930000287</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>0.5670521742876357</v>
+        <v>0.7006873194366204</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-2.856919955046112</v>
+        <v>-2.662532311636033</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>9.534750747883582</v>
+        <v>10.31827337014764</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>10.88629608917892</v>
+        <v>11.45424285227642</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>7.051718082613896</v>
+        <v>7.078337861735613</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6.366120011444691</v>
+        <v>6.41977310865625</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>11.4220169638185</v>
+        <v>11.07856134673879</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>4.035482124556437</v>
+        <v>4.09445031901972</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>6.66164871254882</v>
+        <v>6.187844200942179</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>9.607824666501443</v>
+        <v>9.415206031158297</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>3.987739252838883</v>
+        <v>4.042547275678198</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>0.6994898146657782</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.3311149886124308</v>
+        <v>0.3311149886124307</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.01333053273505023</v>
@@ -1830,7 +1830,7 @@
         <v>0.2777293918239483</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.0656086894049453</v>
+        <v>-0.06560868940494564</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.1940130080345066</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.06822397460564811</v>
+        <v>0.003817809300939974</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.02178938365295738</v>
+        <v>0.04248554156154927</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1513033658620749</v>
+        <v>-0.1666272662864082</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.3393362778409356</v>
+        <v>-0.3088705010026604</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.125219882546121</v>
+        <v>-0.1321389453470692</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3308459832013702</v>
+        <v>-0.3439964754090671</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1208959746868726</v>
+        <v>-0.1417491597995754</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.04676387613353007</v>
+        <v>0.03922219464760109</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1939367849312921</v>
+        <v>-0.1821420082529507</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.632728633206645</v>
+        <v>1.711837344895181</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.80920544918843</v>
+        <v>1.914447919908474</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.145141777078094</v>
+        <v>1.267591444275674</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.4702006115264104</v>
+        <v>0.502660693674864</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.8753224082508175</v>
+        <v>0.8514050359958308</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.3159246536424618</v>
+        <v>0.3266354531828342</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.6132235967947731</v>
+        <v>0.6120272514990496</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.9440231195581182</v>
+        <v>0.9048295394476539</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.3926344632808786</v>
+        <v>0.3906353123306772</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>-0.725486064129409</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2.939866270345248</v>
+        <v>2.939866270345247</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>1.752507982736601</v>
@@ -1939,7 +1939,7 @@
         <v>5.629560990794463</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>8.864684101901748</v>
+        <v>8.864684101901751</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-0.09118944307374005</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-4.874832991824155</v>
+        <v>-5.235549822738292</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-4.084930473550774</v>
+        <v>-3.865087019600987</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.5919047036199685</v>
+        <v>-0.649392766363035</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.784326191149501</v>
+        <v>-2.457284963050922</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>1.451491034845954</v>
+        <v>1.30493386787658</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>5.30572334064034</v>
+        <v>4.901725408454729</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.591302503612456</v>
+        <v>-2.831706659235861</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.08607368843770165</v>
+        <v>0.09038105236584082</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>3.487611931581703</v>
+        <v>3.443727037802013</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.9423988244934065</v>
+        <v>0.9451320124976258</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.299925079809163</v>
+        <v>2.851121245970486</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>6.218191995701184</v>
+        <v>6.622941702618925</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>6.109664814626355</v>
+        <v>5.356554746098403</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>9.517138169122891</v>
+        <v>9.403549148440216</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>12.2326544138885</v>
+        <v>12.14241603922985</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.415735416507567</v>
+        <v>2.33445855531681</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>5.22741469915795</v>
+        <v>5.394187580367714</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>8.504267299246814</v>
+        <v>8.577097839700226</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>-0.07817321220255548</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.3167790549838052</v>
+        <v>0.316779054983805</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.131001078994401</v>
@@ -2044,7 +2044,7 @@
         <v>0.4208132409800873</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.6626407375789858</v>
+        <v>0.662640737578986</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.008022250146531035</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.4586828812839863</v>
+        <v>-0.4667008966497259</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.383175531084589</v>
+        <v>-0.3548540131437646</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.05645249226340261</v>
+        <v>-0.06279193345573017</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1180585002988575</v>
+        <v>-0.1596499605787152</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.10194666785004</v>
+        <v>0.08215926399697301</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3319659911270899</v>
+        <v>0.3163412125264468</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.1998113112783698</v>
+        <v>-0.226584096397447</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.009044113307425088</v>
+        <v>0.007463706419523103</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.2788160691714344</v>
+        <v>0.2733863780355049</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1194940314700447</v>
+        <v>0.1152177007906431</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.3058742105248551</v>
+        <v>0.3990422591604607</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.8350409644358342</v>
+        <v>0.8822101348039493</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.5313836938604688</v>
+        <v>0.4461056371060844</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.837747343276883</v>
+        <v>0.8028814646311915</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.074762531723859</v>
+        <v>1.048389460520245</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2336701235899734</v>
+        <v>0.2260863147486013</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.5298155893426465</v>
+        <v>0.5389438981058408</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.8418566957479656</v>
+        <v>0.851076395519986</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>-4.218005487843486</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>0.9818042685476049</v>
+        <v>0.9818042685476036</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>0.817155863289698</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-2.810156131453687</v>
+        <v>-2.581376770504774</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-6.904215839800922</v>
+        <v>-6.958524871046818</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-1.905888458348564</v>
+        <v>-1.842635797436047</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-3.193996028799537</v>
+        <v>-2.969020021457784</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-7.17554909069605</v>
+        <v>-6.913211784563828</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-0.6698789875104822</v>
+        <v>-0.6178845724352563</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-1.828657108193705</v>
+        <v>-1.962757802472081</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-6.263303457335169</v>
+        <v>-6.257337496154007</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-0.6159779979148154</v>
+        <v>-0.2998040559275398</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>3.365650612722579</v>
+        <v>3.596054373112083</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-1.343267265206275</v>
+        <v>-1.469935630746648</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>3.919963983408508</v>
+        <v>4.062664652295754</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>4.411803112849165</v>
+        <v>4.506357742064297</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.3223609553351657</v>
+        <v>-0.0006391768813725587</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>6.380388120577465</v>
+        <v>6.51010158749796</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>3.097918169796658</v>
+        <v>3.155136460655064</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-1.459476791017213</v>
+        <v>-1.449667550874894</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>4.184515621352224</v>
+        <v>4.288986345500135</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>-0.4151846912878682</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.09664048643769195</v>
+        <v>0.09664048643769181</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.04990782216836422</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.2445011568179402</v>
+        <v>-0.2283402377259378</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.6028652387069104</v>
+        <v>-0.5862924462764718</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.1614881871288685</v>
+        <v>-0.1695014175233572</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.1715395851216425</v>
+        <v>-0.1614408404746963</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.3955997223534081</v>
+        <v>-0.3866003805418547</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.03585147772025587</v>
+        <v>-0.02738647607695662</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.1247044204696677</v>
+        <v>-0.1343879756063078</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.4289928462039265</v>
+        <v>-0.4236821873189059</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.03668513053801472</v>
+        <v>-0.02232350497234762</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.400277105475171</v>
+        <v>0.4159624628491967</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.1525271524750208</v>
+        <v>-0.1492748132144325</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.4568071933004726</v>
+        <v>0.477528824398093</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.3012493285392206</v>
+        <v>0.3020738478896633</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.01196377271978356</v>
+        <v>-0.0003821622757854989</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.4431612071465647</v>
+        <v>0.4829960993800909</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.2615117988506615</v>
+        <v>0.2592313801978672</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.1109802908086699</v>
+        <v>-0.1245330143696623</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.3504547709009829</v>
+        <v>0.3542784293247562</v>
       </c>
     </row>
     <row r="52">
@@ -2376,7 +2376,7 @@
         <v>2.131788355976666</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>4.733515910860969</v>
+        <v>4.733515910860972</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>1.312861417624008</v>
+        <v>1.356389308387942</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.1991299112974944</v>
+        <v>-0.2918265902993695</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>2.987353698849347</v>
+        <v>2.902546068665935</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>3.581913137089576</v>
+        <v>3.433437335485207</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>1.322495670377043</v>
+        <v>1.353768651011506</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>3.441777630961504</v>
+        <v>3.40014121278125</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>2.877035447483396</v>
+        <v>2.860834165550661</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>0.9660367398967165</v>
+        <v>0.9633929627433295</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>3.641381088409886</v>
+        <v>3.583043367426519</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>4.410131578451451</v>
+        <v>4.282730172946343</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>2.468775337920551</v>
+        <v>2.390158734709676</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>5.823529862799194</v>
+        <v>5.803008890322943</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>7.170334223513415</v>
+        <v>6.977270391050823</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>4.88264124196029</v>
+        <v>4.806371108611677</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>6.711949800552603</v>
+        <v>6.688823837256379</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>5.278007638586567</v>
+        <v>5.304018898083564</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>3.292338010231649</v>
+        <v>3.316455352331402</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>5.827293104193128</v>
+        <v>5.80642552845195</v>
       </c>
     </row>
     <row r="55">
@@ -2481,7 +2481,7 @@
         <v>0.1864212891623719</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.4139379671060365</v>
+        <v>0.4139379671060368</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.1518164549986115</v>
+        <v>0.153440571645071</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.0175724604878283</v>
+        <v>-0.03210130236119324</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.3365398824026801</v>
+        <v>0.3248091647423482</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.2298021872894745</v>
+        <v>0.2195269813755923</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.08417585769512149</v>
+        <v>0.08718654865228144</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.2243131599101991</v>
+        <v>0.2153671266864978</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.2429293634755836</v>
+        <v>0.2408725805720554</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.07887147745810839</v>
+        <v>0.08759436273838976</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.3022607009537837</v>
+        <v>0.2940622021880599</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.5994865720464507</v>
+        <v>0.5581800779042283</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.3352056330683315</v>
+        <v>0.3146615297470546</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.7789778253870611</v>
+        <v>0.7773039792603575</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.53006127325895</v>
+        <v>0.4967804807133045</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.3498768141588207</v>
+        <v>0.3511432757762561</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.5008642726156917</v>
+        <v>0.4856509477691817</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.4835586128483259</v>
+        <v>0.4934430401227832</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.2977225038998929</v>
+        <v>0.3097485445346783</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.5322972460472104</v>
+        <v>0.535311866910643</v>
       </c>
     </row>
     <row r="58">
